--- a/多因子合成/策略描述.xlsx
+++ b/多因子合成/策略描述.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F40E1993-3FC2-4E2E-B405-B2FBDCFD6F19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{287D6398-CE60-46A6-AFED-1080DD40B766}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,38 @@
   </si>
   <si>
     <t>将10日换手率进行绝对值优化，发现-abs(VOL10-0.004)效果最好，作为情绪类Factor1。使用前期因子复现与因子创造中最优的动量类因子Factor2。使用多因子合成课件中表现非常优异的pe，pb，ps线性合成价值类因子Factor3。以上述三因子等权组合进行因子合成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定IC策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取年度IC最稳定的5个因子进行滚动IC-weight合成，滚动窗口250交易日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十因子策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五因子策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子搜索2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似因子搜索，只考虑HS300指数MA20下跌时的数据，计算IC和IR，按乘积降序排列并保存结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取大盘下跌时，表现最好的十个因子进行合成，IC-weight合成，滚动窗口250交易日，作为风险对冲因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取年度IC最稳定的5个因子和熊市表现最好的10个因子进行合成，对冲大盘风险，IC-weight合成，滚动窗口250交易日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +253,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -476,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,6 +627,74 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>9.4335439878724198E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.48021706665506703</v>
+      </c>
+      <c r="D8">
+        <v>0.10493676277533601</v>
+      </c>
+      <c r="E8">
+        <v>0.67566240701566405</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>3.2708047991755598E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.25477387481212699</v>
+      </c>
+      <c r="D9">
+        <v>0.12959397039934001</v>
+      </c>
+      <c r="E9">
+        <v>0.97429492470508705</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>7.3166488615998199E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.420824958700734</v>
+      </c>
+      <c r="D10">
+        <v>0.141058517931273</v>
+      </c>
+      <c r="E10">
+        <v>0.84121680970217205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/多因子合成/策略描述.xlsx
+++ b/多因子合成/策略描述.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{287D6398-CE60-46A6-AFED-1080DD40B766}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C05E1F7-9196-4FEC-9B5D-C26194BC6E9D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="策略描述" sheetId="1" r:id="rId1"/>
+    <sheet name="三十因子合成详细报告" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +116,30 @@
   </si>
   <si>
     <t>取年度IC最稳定的5个因子和熊市表现最好的10个因子进行合成，对冲大盘风险，IC-weight合成，滚动窗口250交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十因子策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取年度IC最稳定的30个因子进行合成，IC-weight合成，滚动窗口250交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本内相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本内绝对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本外相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本外绝对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +161,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,8 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -243,6 +277,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579924</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6B380F-0102-4F4C-B6DE-32CD53AC42CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="180975"/>
+          <a:ext cx="8809524" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608495</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6142D2-9F05-4AD4-B6B4-A2ECAC20BD74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3438525"/>
+          <a:ext cx="8838095" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>160790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68D9688-33EC-4269-8FE6-7CF3DC531DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="3438525"/>
+          <a:ext cx="9076190" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>246590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C909C9B3-6B25-477A-BF64-3BEF7834AC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="180975"/>
+          <a:ext cx="8476190" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,9 +910,66 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>6.7157786117598206E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.51538547445205096</v>
+      </c>
+      <c r="D11">
+        <v>0.127448674042487</v>
+      </c>
+      <c r="E11">
+        <v>0.67226039220443001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AB9239-DF2C-4E85-9A34-0184E9F7FB87}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>